--- a/biology/Histoire de la zoologie et de la botanique/Charles_Barter/Charles_Barter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Barter/Charles_Barter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Barter, né en 1821[1] et mort le 15 juillet 1859[2], est un jardinier et botaniste écossais qui s'est formé à Kew Gardens à Londres, de 1849 à 1851. Il a été contremaître de Regent's Park de la Royal Botanic Society de 1851 à 1857[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Barter, né en 1821 et mort le 15 juillet 1859, est un jardinier et botaniste écossais qui s'est formé à Kew Gardens à Londres, de 1849 à 1851. Il a été contremaître de Regent's Park de la Royal Botanic Society de 1851 à 1857. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1857, il rejoint une expédition au Niger dirigée par William Balfour Baikie (1825-1864), naturaliste et philologue écossais, en correspondance avec Charles Darwin. L'expédition s'est terminée prématurément lorsque le navire a heurté des rochers près de Jebba. Il a fallu un an pour que les survivants soient sauvés et ramenés en Angleterre, mais Charles Barter n'est jamais revenu dans son pays. Il a attrapé la dysenterie et est décédé à Rabba, au Nigéria, en 1859. 
 </t>
@@ -542,7 +556,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Barteria Hook. F. de la famille des Passifloraceae commémorent son nom. 
 </t>
